--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H2">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I2">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J2">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>44.28286349314297</v>
+        <v>117.129031547412</v>
       </c>
       <c r="R2">
-        <v>44.28286349314297</v>
+        <v>1054.161283926708</v>
       </c>
       <c r="S2">
-        <v>0.0463142386712906</v>
+        <v>0.0776073953759788</v>
       </c>
       <c r="T2">
-        <v>0.0463142386712906</v>
+        <v>0.1007691980999369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H3">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I3">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J3">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>67.29542412336282</v>
+        <v>75.73109586050934</v>
       </c>
       <c r="R3">
-        <v>67.29542412336282</v>
+        <v>681.579862744584</v>
       </c>
       <c r="S3">
-        <v>0.07038244793762642</v>
+        <v>0.05017793642666347</v>
       </c>
       <c r="T3">
-        <v>0.07038244793762642</v>
+        <v>0.06515346110416632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H4">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I4">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J4">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>3.838317492092372</v>
+        <v>4.454952898418888</v>
       </c>
       <c r="R4">
-        <v>3.838317492092372</v>
+        <v>40.09457608576999</v>
       </c>
       <c r="S4">
-        <v>0.0040143915366377</v>
+        <v>0.002951764275699729</v>
       </c>
       <c r="T4">
-        <v>0.0040143915366377</v>
+        <v>0.00383271359129222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H5">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I5">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J5">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>7.031295929880999</v>
+        <v>8.756602126870222</v>
       </c>
       <c r="R5">
-        <v>7.031295929880999</v>
+        <v>78.809419141832</v>
       </c>
       <c r="S5">
-        <v>0.007353840564429811</v>
+        <v>0.005801952551234678</v>
       </c>
       <c r="T5">
-        <v>0.007353840564429811</v>
+        <v>0.00753353598802475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H6">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I6">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J6">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>16.89712351854892</v>
+        <v>18.58890929700333</v>
       </c>
       <c r="R6">
-        <v>16.89712351854892</v>
+        <v>111.53345578202</v>
       </c>
       <c r="S6">
-        <v>0.01767224045070011</v>
+        <v>0.0123166461325755</v>
       </c>
       <c r="T6">
-        <v>0.01767224045070011</v>
+        <v>0.01066168628258059</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H7">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I7">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J7">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>45.88215031958201</v>
+        <v>122.967361741674</v>
       </c>
       <c r="R7">
-        <v>45.88215031958201</v>
+        <v>1106.706255675066</v>
       </c>
       <c r="S7">
-        <v>0.04798688912658508</v>
+        <v>0.08147575827231333</v>
       </c>
       <c r="T7">
-        <v>0.04798688912658508</v>
+        <v>0.1057920677006327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H8">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I8">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J8">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>69.7258154032038</v>
+        <v>79.50593406898534</v>
       </c>
       <c r="R8">
-        <v>69.7258154032038</v>
+        <v>715.553406620868</v>
       </c>
       <c r="S8">
-        <v>0.07292432786408166</v>
+        <v>0.05267907006923923</v>
       </c>
       <c r="T8">
-        <v>0.07292432786408166</v>
+        <v>0.06840105407236358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H9">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I9">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J9">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>3.976939300091406</v>
+        <v>4.677011304240555</v>
       </c>
       <c r="R9">
-        <v>3.976939300091406</v>
+        <v>42.093101738165</v>
       </c>
       <c r="S9">
-        <v>0.004159372303333313</v>
+        <v>0.00309889581319721</v>
       </c>
       <c r="T9">
-        <v>0.004159372303333313</v>
+        <v>0.004023756300263496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H10">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I10">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J10">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>7.285232962548148</v>
+        <v>9.193077473084887</v>
       </c>
       <c r="R10">
-        <v>7.285232962548148</v>
+        <v>82.737697257764</v>
       </c>
       <c r="S10">
-        <v>0.007619426378234439</v>
+        <v>0.006091152541348464</v>
       </c>
       <c r="T10">
-        <v>0.007619426378234439</v>
+        <v>0.007909047251520859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H11">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I11">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J11">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>17.50736741237736</v>
+        <v>19.51547881604833</v>
       </c>
       <c r="R11">
-        <v>17.50736741237736</v>
+        <v>117.09287289629</v>
       </c>
       <c r="S11">
-        <v>0.01831047788877465</v>
+        <v>0.01293057289400995</v>
       </c>
       <c r="T11">
-        <v>0.01831047788877465</v>
+        <v>0.01119312109530798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H12">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I12">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J12">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>9.627363782445249</v>
+        <v>39.630916688934</v>
       </c>
       <c r="R12">
-        <v>9.627363782445249</v>
+        <v>356.678250200406</v>
       </c>
       <c r="S12">
-        <v>0.01006899709781757</v>
+        <v>0.02625866687325594</v>
       </c>
       <c r="T12">
-        <v>0.01006899709781757</v>
+        <v>0.03409552390171304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H13">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I13">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J13">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>14.63043438981485</v>
+        <v>25.62381598446534</v>
       </c>
       <c r="R13">
-        <v>14.63043438981485</v>
+        <v>230.614343860188</v>
       </c>
       <c r="S13">
-        <v>0.01530157213748082</v>
+        <v>0.01697783710729969</v>
       </c>
       <c r="T13">
-        <v>0.01530157213748082</v>
+        <v>0.02204484537183019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H14">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I14">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J14">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>0.8344735614176846</v>
+        <v>1.507345060723889</v>
       </c>
       <c r="R14">
-        <v>0.8344735614176846</v>
+        <v>13.566105546515</v>
       </c>
       <c r="S14">
-        <v>0.0008727531293084743</v>
+        <v>0.0009987372263747906</v>
       </c>
       <c r="T14">
-        <v>0.0008727531293084743</v>
+        <v>0.001296808750335844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H15">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I15">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J15">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>1.528646488488103</v>
+        <v>2.962819420458223</v>
       </c>
       <c r="R15">
-        <v>1.528646488488103</v>
+        <v>26.665374784124</v>
       </c>
       <c r="S15">
-        <v>0.00159876965325043</v>
+        <v>0.001963105945241721</v>
       </c>
       <c r="T15">
-        <v>0.00159876965325043</v>
+        <v>0.002548991767200279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H16">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I16">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J16">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>3.673537394779615</v>
+        <v>6.289606478898334</v>
       </c>
       <c r="R16">
-        <v>3.673537394779615</v>
+        <v>37.73763887339</v>
       </c>
       <c r="S16">
-        <v>0.003842052528876757</v>
+        <v>0.004167369697491245</v>
       </c>
       <c r="T16">
-        <v>0.003842052528876757</v>
+        <v>0.003607409668178358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H17">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I17">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J17">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>4.94501240105377</v>
+        <v>16.118383563594</v>
       </c>
       <c r="R17">
-        <v>4.94501240105377</v>
+        <v>145.065452072346</v>
       </c>
       <c r="S17">
-        <v>0.005171853545793389</v>
+        <v>0.01067972431356756</v>
       </c>
       <c r="T17">
-        <v>0.005171853545793389</v>
+        <v>0.01386707091241598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H18">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I18">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J18">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>7.51479648274623</v>
+        <v>10.421522611812</v>
       </c>
       <c r="R18">
-        <v>7.51479648274623</v>
+        <v>93.79370350630799</v>
       </c>
       <c r="S18">
-        <v>0.007859520600377999</v>
+        <v>0.006905096158224554</v>
       </c>
       <c r="T18">
-        <v>0.007859520600377999</v>
+        <v>0.008965911035878101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H19">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I19">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J19">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>0.4286201501065406</v>
+        <v>0.613055863485</v>
       </c>
       <c r="R19">
-        <v>0.4286201501065406</v>
+        <v>5.517502771364999</v>
       </c>
       <c r="S19">
-        <v>0.0004482821201125038</v>
+        <v>0.0004061987720421284</v>
       </c>
       <c r="T19">
-        <v>0.0004482821201125038</v>
+        <v>0.0005274281443097344</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H20">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I20">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J20">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>0.7851760890332762</v>
+        <v>1.205015271876</v>
       </c>
       <c r="R20">
-        <v>0.7851760890332762</v>
+        <v>10.845137446884</v>
       </c>
       <c r="S20">
-        <v>0.0008211942480212154</v>
+        <v>0.0007984194473657767</v>
       </c>
       <c r="T20">
-        <v>0.0008211942480212154</v>
+        <v>0.001036706451346093</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H21">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I21">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J21">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N21">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O21">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P21">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q21">
-        <v>1.886880810097119</v>
+        <v>2.558060679915</v>
       </c>
       <c r="R21">
-        <v>1.886880810097119</v>
+        <v>15.34836407949</v>
       </c>
       <c r="S21">
-        <v>0.001973437155811933</v>
+        <v>0.001694920754992744</v>
       </c>
       <c r="T21">
-        <v>0.001973437155811933</v>
+        <v>0.001467178091264084</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H22">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I22">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J22">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N22">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O22">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P22">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q22">
-        <v>199.1169169504227</v>
+        <v>491.017259431503</v>
       </c>
       <c r="R22">
-        <v>199.1169169504227</v>
+        <v>2946.103556589018</v>
       </c>
       <c r="S22">
-        <v>0.2082509505412045</v>
+        <v>0.3253383903691312</v>
       </c>
       <c r="T22">
-        <v>0.2082509505412045</v>
+        <v>0.2816234075785772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H23">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I23">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J23">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N23">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P23">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q23">
-        <v>302.5923871971376</v>
+        <v>317.4727448174941</v>
       </c>
       <c r="R23">
-        <v>302.5923871971376</v>
+        <v>1904.836468904964</v>
       </c>
       <c r="S23">
-        <v>0.3164731215481102</v>
+        <v>0.2103512041604759</v>
       </c>
       <c r="T23">
-        <v>0.3164731215481102</v>
+        <v>0.182086789194218</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H24">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I24">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J24">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N24">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O24">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P24">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q24">
-        <v>17.25890976812411</v>
+        <v>18.6756326265075</v>
       </c>
       <c r="R24">
-        <v>17.25890976812411</v>
+        <v>112.053795759045</v>
       </c>
       <c r="S24">
-        <v>0.01805062281780721</v>
+        <v>0.01237410730707882</v>
       </c>
       <c r="T24">
-        <v>0.01805062281780721</v>
+        <v>0.01071142652918577</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H25">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I25">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J25">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N25">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O25">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P25">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q25">
-        <v>31.61606674195205</v>
+        <v>36.708600092262</v>
       </c>
       <c r="R25">
-        <v>31.61606674195205</v>
+        <v>220.251600553572</v>
       </c>
       <c r="S25">
-        <v>0.03306638156227086</v>
+        <v>0.02432239730340206</v>
       </c>
       <c r="T25">
-        <v>0.03306638156227086</v>
+        <v>0.02105425185540601</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H26">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I26">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J26">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N26">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O26">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P26">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q26">
-        <v>75.97754243839539</v>
+        <v>77.9266692317925</v>
       </c>
       <c r="R26">
-        <v>75.97754243839539</v>
+        <v>311.70667692717</v>
       </c>
       <c r="S26">
-        <v>0.07946283859206245</v>
+        <v>0.0516326802117956</v>
       </c>
       <c r="T26">
-        <v>0.07946283859206245</v>
+        <v>0.02979660926205187</v>
       </c>
     </row>
   </sheetData>
